--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rs/OneDrive/Attachments/Documentos/U/Tercero/Semestre2/VD2/proyectoLibre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rs/Desktop/Documentos/U/Tercero/Semestre2/VD2/proyectolibre2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F313B2-B689-7E44-AFC9-61CF30C05380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3552A47-D642-6D45-8242-24AF029B5E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{22289E85-65A8-D242-9562-1B878D6E8CB7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Semana 2</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Puerta</t>
+  </si>
+  <si>
+    <t>Municion</t>
   </si>
 </sst>
 </file>
@@ -742,11 +745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2374CE-E39D-6648-91EC-D6F26E084C5B}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -825,7 +828,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -838,7 +841,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -885,105 +888,105 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B14" s="9">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="9">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="9">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="9">
         <v>4</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B19" s="9">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="9">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -992,10 +995,10 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="9">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -1004,10 +1007,10 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="9">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -1016,10 +1019,10 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -1028,10 +1031,10 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="9">
-        <v>8</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -1039,66 +1042,66 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
-      <c r="B24" s="5">
+      <c r="B24" s="9">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="5">
         <v>9</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="9">
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="9">
         <v>10</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B29" s="9">
         <v>2</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="9">
-        <v>3</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -1107,62 +1110,62 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="9">
+        <v>3</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="9">
         <v>4</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="9">
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="9">
         <v>5</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B35" s="9">
         <v>2</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="9">
-        <v>3</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -1170,91 +1173,91 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="5">
+      <c r="B36" s="9">
+        <v>3</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="5">
         <v>4</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B40" s="5">
         <v>2</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="5">
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="5">
         <v>3</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="9">
-        <v>1</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B43" s="9">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B44" s="5">
         <v>2</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="5">
-        <v>3</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -1263,117 +1266,117 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="5">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="5">
         <v>4</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5">
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5">
         <v>5</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="9">
-        <v>1</v>
-      </c>
-      <c r="C48" s="11" t="s">
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B50" s="9">
         <v>2</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="9">
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="9">
         <v>3</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="9">
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="14"/>
+      <c r="B52" s="9">
         <v>4</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53" s="11" t="s">
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B55" s="5">
         <v>2</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="5">
-        <v>3</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
@@ -1382,22 +1385,22 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
       <c r="B56" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="4">
+        <v>60</v>
+      </c>
+      <c r="D56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
       <c r="B57" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
@@ -1406,10 +1409,10 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
       <c r="B58" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D58" s="4">
         <v>0</v>
@@ -1418,92 +1421,104 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="13"/>
       <c r="B59" s="5">
+        <v>6</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="13"/>
+      <c r="B60" s="5">
         <v>7</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
-      <c r="B60" s="5">
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="14"/>
+      <c r="B61" s="5">
         <v>8</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="2">
-        <v>1</v>
-      </c>
-      <c r="C62" s="11" t="s">
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B64" s="2">
         <v>2</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="2">
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="17"/>
+      <c r="B65" s="2">
         <v>3</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="4">
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="4">
         <v>4</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="A64:A66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rs/Desktop/Documentos/U/Tercero/Semestre2/VD2/proyectolibre2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3552A47-D642-6D45-8242-24AF029B5E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D27D1B6-B34D-BE42-85B4-A1C17EB15A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{22289E85-65A8-D242-9562-1B878D6E8CB7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Semana 2</t>
   </si>
@@ -96,21 +96,6 @@
     <t>Modelo de cuchillo</t>
   </si>
   <si>
-    <t>Animacion de caminar de enemigo 1</t>
-  </si>
-  <si>
-    <t>Animacion de caminar de enemigo 2</t>
-  </si>
-  <si>
-    <t>Animacion de idle de enemigo 1</t>
-  </si>
-  <si>
-    <t>Animacion de idle de enemigo 2</t>
-  </si>
-  <si>
-    <t>Animacion de abrir cofre</t>
-  </si>
-  <si>
     <t>Animacion de agarrar llave</t>
   </si>
   <si>
@@ -129,9 +114,6 @@
     <t>Animacion de patada del arma</t>
   </si>
   <si>
-    <t>UI</t>
-  </si>
-  <si>
     <t>Conteo de llaves</t>
   </si>
   <si>
@@ -258,12 +240,6 @@
     <t>Semana 8</t>
   </si>
   <si>
-    <t>Animaciones y disparo</t>
-  </si>
-  <si>
-    <t>Diseño y jugador</t>
-  </si>
-  <si>
     <t>Cofre</t>
   </si>
   <si>
@@ -274,6 +250,39 @@
   </si>
   <si>
     <t>Municion</t>
+  </si>
+  <si>
+    <t>Animaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UI y funcionalidad del arma</t>
+  </si>
+  <si>
+    <t>Animacion de disparar</t>
+  </si>
+  <si>
+    <t>Animacion de abrir/cerrar cofre</t>
+  </si>
+  <si>
+    <t>Animacion de caminar de enemigo 1 (slasher)</t>
+  </si>
+  <si>
+    <t>Animacion de caminar de enemigo 2 (grande)</t>
+  </si>
+  <si>
+    <t>Animacion de idle de enemigo 1 (slasher)</t>
+  </si>
+  <si>
+    <t>Animacion de idle de enemigo 2 (grande)</t>
+  </si>
+  <si>
+    <t>Animacion de ataque de enemigo 1 (slasher)</t>
+  </si>
+  <si>
+    <t>Animacion de ataque de enemigo 2 (grande)</t>
+  </si>
+  <si>
+    <t>Diseño de laberinto</t>
   </si>
 </sst>
 </file>
@@ -385,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,18 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -424,6 +421,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,8 +445,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8EA8DB"/>
       <color rgb="FFAAD18D"/>
-      <color rgb="FF8EA8DB"/>
     </mruColors>
   </colors>
   <extLst>
@@ -745,11 +757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2374CE-E39D-6648-91EC-D6F26E084C5B}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,11 +784,11 @@
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -794,7 +806,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5">
@@ -808,69 +820,69 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="5">
         <f>B5+1</f>
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="5">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="5">
         <f t="shared" ref="B8" si="0">B7+1</f>
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="5">
         <f>B8+1</f>
         <v>8</v>
@@ -883,24 +895,24 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="5">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="5">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -924,8 +936,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>27</v>
+      <c r="A14" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
@@ -938,7 +950,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="9">
         <v>3</v>
       </c>
@@ -950,7 +962,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="9">
         <v>4</v>
       </c>
@@ -958,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -972,224 +984,232 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>75</v>
+      <c r="A19" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="B19" s="9">
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="9">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="9">
         <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="9">
         <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="9">
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="9">
         <v>8</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>31</v>
+      <c r="C24" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="5">
         <v>9</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>59</v>
+      <c r="C25" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="9">
         <v>10</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="9">
+        <v>11</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="9">
+        <v>12</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="9">
+        <v>13</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="9">
+        <v>2</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="9">
+        <v>5</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="9">
-        <v>2</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="9">
-        <v>3</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="9">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="5">
+        <v>7</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="9">
-        <v>4</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="9">
-        <v>5</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="9">
-        <v>1</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="9">
-        <v>2</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="9">
-        <v>3</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="5">
-        <v>4</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -1197,13 +1217,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="5">
+        <v>3</v>
+      </c>
+      <c r="B39" s="9">
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -1211,13 +1231,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="5">
+        <v>83</v>
+      </c>
+      <c r="B40" s="9">
         <v>2</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -1225,300 +1245,328 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
-      <c r="B41" s="5">
+      <c r="B41" s="9">
         <v>3</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="5">
+        <v>4</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="5">
+        <v>3</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="9">
-        <v>1</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="B48" s="9">
+        <v>1</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="5">
+        <v>2</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="5">
+        <v>3</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="5">
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="9">
+        <v>1</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="9">
         <v>2</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="5">
+      <c r="C53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="19"/>
+      <c r="B54" s="9">
         <v>3</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="5">
+      <c r="C54" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="9">
         <v>4</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5">
+      <c r="C55" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="5">
+        <v>2</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="19"/>
+      <c r="B59" s="5">
+        <v>3</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="19"/>
+      <c r="B60" s="5">
+        <v>4</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="19"/>
+      <c r="B61" s="5">
         <v>5</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="9">
-        <v>1</v>
-      </c>
-      <c r="C49" s="11" t="s">
+      <c r="C61" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="19"/>
+      <c r="B62" s="5">
+        <v>6</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="19"/>
+      <c r="B63" s="5">
+        <v>7</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="5">
+        <v>8</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="9">
+      <c r="B67" s="2">
         <v>2</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C67" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="13"/>
+      <c r="B68" s="2">
+        <v>3</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="4">
+        <v>4</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="9">
-        <v>3</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="9">
-        <v>4</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5">
-        <v>2</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="5">
-        <v>3</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
-      <c r="B57" s="5">
-        <v>4</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="5">
-        <v>5</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
-      <c r="B59" s="5">
-        <v>6</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
-      <c r="B60" s="5">
-        <v>7</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="14"/>
-      <c r="B61" s="5">
-        <v>8</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="2">
-        <v>1</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="2">
-        <v>2</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
-      <c r="B65" s="2">
-        <v>3</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="4">
-        <v>4</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A64:A66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rs/Desktop/Documentos/U/Tercero/Semestre2/VD2/proyectolibre2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D27D1B6-B34D-BE42-85B4-A1C17EB15A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C61A72-321A-9F47-8E92-B9AE07EF2F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{22289E85-65A8-D242-9562-1B878D6E8CB7}"/>
   </bookViews>
@@ -760,8 +760,8 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,7 +1138,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1152,7 +1152,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1188,7 +1188,7 @@
         <v>32</v>
       </c>
       <c r="D35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1200,7 +1200,7 @@
         <v>36</v>
       </c>
       <c r="D36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rs/Desktop/Documentos/U/Tercero/Semestre2/VD2/proyectolibre2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C61A72-321A-9F47-8E92-B9AE07EF2F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57EA701-5ADD-604C-B0D2-4E5C6EC80750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{22289E85-65A8-D242-9562-1B878D6E8CB7}"/>
   </bookViews>
@@ -414,6 +414,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -423,18 +435,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -760,8 +760,8 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5">
@@ -820,7 +820,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="5">
         <v>3</v>
       </c>
@@ -832,7 +832,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5">
         <v>4</v>
       </c>
@@ -844,7 +844,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5">
         <f>B5+1</f>
         <v>5</v>
@@ -857,7 +857,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5">
         <v>6</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5">
         <f t="shared" ref="B8" si="0">B7+1</f>
         <v>7</v>
@@ -882,7 +882,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5">
         <f>B8+1</f>
         <v>8</v>
@@ -895,7 +895,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5">
         <v>9</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5">
         <v>10</v>
       </c>
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="9">
@@ -950,7 +950,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="9">
         <v>3</v>
       </c>
@@ -962,7 +962,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="9">
         <v>4</v>
       </c>
@@ -1142,7 +1142,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B32" s="9">
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="9">
         <v>3</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="9">
         <v>4</v>
       </c>
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="9">
         <v>5</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="9">
         <v>6</v>
       </c>
@@ -1204,7 +1204,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="5">
         <v>7</v>
       </c>
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B45" s="5">
@@ -1292,11 +1292,11 @@
         <v>34</v>
       </c>
       <c r="D45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="5">
         <v>3</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="5">
@@ -1336,7 +1336,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="5">
         <v>3</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="9">
@@ -1376,7 +1376,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="9">
         <v>3</v>
       </c>
@@ -1388,7 +1388,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="9">
         <v>4</v>
       </c>
@@ -1417,7 +1417,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="5">
@@ -1431,7 +1431,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="5">
         <v>3</v>
       </c>
@@ -1443,7 +1443,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="5">
         <v>4</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="5">
         <v>5</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="5">
         <v>6</v>
       </c>
@@ -1479,7 +1479,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="5">
         <v>7</v>
       </c>
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="5">
         <v>8</v>
       </c>
@@ -1517,7 +1517,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="2">
@@ -1531,7 +1531,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="2">
         <v>3</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="4">
         <v>4</v>
       </c>
@@ -1557,16 +1557,16 @@
     <row r="72" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A3:A11"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A58:A64"/>
     <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A29"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A3:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rs/Desktop/Documentos/U/Tercero/Semestre2/VD2/proyectolibre2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57EA701-5ADD-604C-B0D2-4E5C6EC80750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9416676B-21ED-E941-B810-21FDD6D79D36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{22289E85-65A8-D242-9562-1B878D6E8CB7}"/>
   </bookViews>
@@ -414,18 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -435,6 +423,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -761,7 +761,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5">
@@ -820,7 +820,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="5">
         <v>3</v>
       </c>
@@ -832,7 +832,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="5">
         <v>4</v>
       </c>
@@ -844,7 +844,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="5">
         <f>B5+1</f>
         <v>5</v>
@@ -857,7 +857,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="5">
         <v>6</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="5">
         <f t="shared" ref="B8" si="0">B7+1</f>
         <v>7</v>
@@ -882,7 +882,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="5">
         <f>B8+1</f>
         <v>8</v>
@@ -895,7 +895,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="5">
         <v>9</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="5">
         <v>10</v>
       </c>
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="9">
@@ -950,7 +950,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="9">
         <v>3</v>
       </c>
@@ -962,7 +962,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="9">
         <v>4</v>
       </c>
@@ -1142,7 +1142,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B32" s="9">
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="9">
         <v>3</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="9">
         <v>4</v>
       </c>
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="9">
         <v>5</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="9">
         <v>6</v>
       </c>
@@ -1204,7 +1204,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="5">
         <v>7</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1240,7 +1240,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1252,7 +1252,7 @@
         <v>42</v>
       </c>
       <c r="D41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1264,7 +1264,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1278,11 +1278,11 @@
         <v>33</v>
       </c>
       <c r="D44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B45" s="5">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="5">
         <v>3</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>35</v>
       </c>
       <c r="D46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="5">
@@ -1336,7 +1336,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="5">
         <v>3</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="9">
@@ -1376,7 +1376,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="14"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="9">
         <v>3</v>
       </c>
@@ -1388,7 +1388,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="9">
         <v>4</v>
       </c>
@@ -1417,7 +1417,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="5">
@@ -1431,7 +1431,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="5">
         <v>3</v>
       </c>
@@ -1443,7 +1443,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="5">
         <v>4</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="14"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="5">
         <v>5</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="5">
         <v>6</v>
       </c>
@@ -1479,7 +1479,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
+      <c r="A63" s="19"/>
       <c r="B63" s="5">
         <v>7</v>
       </c>
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="13"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="5">
         <v>8</v>
       </c>
@@ -1517,7 +1517,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="2">
@@ -1531,7 +1531,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="2">
         <v>3</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="4">
         <v>4</v>
       </c>
@@ -1557,16 +1557,16 @@
     <row r="72" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A19:A29"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A67:A69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rs/Desktop/Documentos/U/Tercero/Semestre2/VD2/proyectolibre2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9416676B-21ED-E941-B810-21FDD6D79D36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE50046-4F35-3C43-812B-9CCB30DFB8F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{22289E85-65A8-D242-9562-1B878D6E8CB7}"/>
   </bookViews>
@@ -414,6 +414,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -423,18 +435,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -760,8 +760,8 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5">
@@ -820,7 +820,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="5">
         <v>3</v>
       </c>
@@ -832,7 +832,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5">
         <v>4</v>
       </c>
@@ -844,7 +844,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5">
         <f>B5+1</f>
         <v>5</v>
@@ -857,7 +857,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5">
         <v>6</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5">
         <f t="shared" ref="B8" si="0">B7+1</f>
         <v>7</v>
@@ -882,7 +882,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5">
         <f>B8+1</f>
         <v>8</v>
@@ -891,11 +891,11 @@
         <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5">
         <v>9</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5">
         <v>10</v>
       </c>
@@ -915,7 +915,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="9">
@@ -950,7 +950,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="9">
         <v>3</v>
       </c>
@@ -962,7 +962,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="9">
         <v>4</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1142,7 +1142,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B32" s="9">
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="9">
         <v>3</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="9">
         <v>4</v>
       </c>
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="9">
         <v>5</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="9">
         <v>6</v>
       </c>
@@ -1204,7 +1204,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="5">
         <v>7</v>
       </c>
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B45" s="5">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="5">
         <v>3</v>
       </c>
@@ -1318,11 +1318,11 @@
         <v>39</v>
       </c>
       <c r="D48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="5">
@@ -1332,11 +1332,11 @@
         <v>40</v>
       </c>
       <c r="D49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="5">
         <v>3</v>
       </c>
@@ -1358,11 +1358,11 @@
         <v>59</v>
       </c>
       <c r="D52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="9">
@@ -1372,11 +1372,11 @@
         <v>58</v>
       </c>
       <c r="D53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="9">
         <v>3</v>
       </c>
@@ -1388,7 +1388,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="9">
         <v>4</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>60</v>
       </c>
       <c r="D55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1413,11 +1413,11 @@
         <v>49</v>
       </c>
       <c r="D57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="5">
@@ -1427,11 +1427,11 @@
         <v>50</v>
       </c>
       <c r="D58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="5">
         <v>3</v>
       </c>
@@ -1439,11 +1439,11 @@
         <v>54</v>
       </c>
       <c r="D59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="5">
         <v>4</v>
       </c>
@@ -1451,11 +1451,11 @@
         <v>51</v>
       </c>
       <c r="D60" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="5">
         <v>5</v>
       </c>
@@ -1463,11 +1463,11 @@
         <v>52</v>
       </c>
       <c r="D61" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="5">
         <v>6</v>
       </c>
@@ -1479,7 +1479,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="5">
         <v>7</v>
       </c>
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="5">
         <v>8</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>57</v>
       </c>
       <c r="D64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1513,11 +1513,11 @@
         <v>62</v>
       </c>
       <c r="D66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="2">
@@ -1527,11 +1527,11 @@
         <v>63</v>
       </c>
       <c r="D67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="2">
         <v>3</v>
       </c>
@@ -1539,11 +1539,11 @@
         <v>67</v>
       </c>
       <c r="D68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="4">
         <v>4</v>
       </c>
@@ -1551,22 +1551,22 @@
         <v>64</v>
       </c>
       <c r="D69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A3:A11"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A58:A64"/>
     <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A29"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A3:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
